--- a/biology/Médecine/DaxibotulinumtoxinA/DaxibotulinumtoxinA.xlsx
+++ b/biology/Médecine/DaxibotulinumtoxinA/DaxibotulinumtoxinA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-DaxibotulinumtoxinA, vendu sous le nom de marque Daxxify, est un médicament utilisé pour améliorer l'apparence des rides entre les sourcils[1].
-Il peut également être administré pour la dystonie cervicale[2]. Il est administré par injection dans le muscle[1]. Les effets peuvent durer jusqu'à 6 mois[2].
-Les effets secondaires les plus courants comprennent les maux de tête, la chute de la paupière supérieure et la difficulté à bouger le visage[1]. D'autres effets secondaires peuvent inclure des problèmes de déglutition ou de respiration[1]. C'est une toxine botulique A qui inhibe la libération d'acétylcholine et est un agent bloquant neuromusculaire[1].
-DaxibotulinumtoxinA a été approuvé pour un usage médical aux États-Unis en 2022[1]. C'est un concurrent commercial du Botox[3].
+DaxibotulinumtoxinA, vendu sous le nom de marque Daxxify, est un médicament utilisé pour améliorer l'apparence des rides entre les sourcils.
+Il peut également être administré pour la dystonie cervicale. Il est administré par injection dans le muscle. Les effets peuvent durer jusqu'à 6 mois.
+Les effets secondaires les plus courants comprennent les maux de tête, la chute de la paupière supérieure et la difficulté à bouger le visage. D'autres effets secondaires peuvent inclure des problèmes de déglutition ou de respiration. C'est une toxine botulique A qui inhibe la libération d'acétylcholine et est un agent bloquant neuromusculaire.
+DaxibotulinumtoxinA a été approuvé pour un usage médical aux États-Unis en 2022. C'est un concurrent commercial du Botox.
 </t>
         </is>
       </c>
